--- a/III Курс/(python) Эконометрика/03_linear_regression/data/task.xlsx
+++ b/III Курс/(python) Эконометрика/03_linear_regression/data/task.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\OneDrive\Финансовый университет\Эконометрика\Практические\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\Coding\GitHub Projects\My-University\III Курс\(python) Эконометрика\03_linear_regression\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58882920-5CF9-F248-B99B-61D6207D25FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A549E48-F18A-4B42-ACA9-F49BD01B2A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t> №</t>
   </si>
@@ -70,6 +71,90 @@
   </si>
   <si>
     <t>Проинтерпретируйте полученные результаты.</t>
+  </si>
+  <si>
+    <t>ВЫВОД ИТОГОВ</t>
+  </si>
+  <si>
+    <t>Регрессионная статистика</t>
+  </si>
+  <si>
+    <t>Множественный R</t>
+  </si>
+  <si>
+    <t>R-квадрат</t>
+  </si>
+  <si>
+    <t>Нормированный R-квадрат</t>
+  </si>
+  <si>
+    <t>Стандартная ошибка</t>
+  </si>
+  <si>
+    <t>Наблюдения</t>
+  </si>
+  <si>
+    <t>Дисперсионный анализ</t>
+  </si>
+  <si>
+    <t>Регрессия</t>
+  </si>
+  <si>
+    <t>Остаток</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Y-пересечение</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Значимость F</t>
+  </si>
+  <si>
+    <t>Коэффициенты</t>
+  </si>
+  <si>
+    <t>t-статистика</t>
+  </si>
+  <si>
+    <t>P-Значение</t>
+  </si>
+  <si>
+    <t>Нижние 95%</t>
+  </si>
+  <si>
+    <t>Верхние 95%</t>
+  </si>
+  <si>
+    <t>Нижние 95,0%</t>
+  </si>
+  <si>
+    <t>Верхние 95,0%</t>
+  </si>
+  <si>
+    <t>ВЫВОД ОСТАТКА</t>
+  </si>
+  <si>
+    <t>Наблюдение</t>
+  </si>
+  <si>
+    <t>Предсказанное Объем денежных накоплений в РФ миллиард руб. (y)</t>
+  </si>
+  <si>
+    <t>Остатки</t>
   </si>
 </sst>
 </file>
@@ -81,7 +166,7 @@
     <numFmt numFmtId="165" formatCode="[$-419]General"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; &quot;[$руб.-419];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$руб.-419]"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +235,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -171,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -311,6 +403,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -324,7 +436,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
@@ -365,14 +477,22 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Heading1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Result" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Result2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -683,37 +803,533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D5E089-5F2E-4BBE-9FFE-AED267DC5A9D}">
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.3984375" customWidth="1"/>
+    <col min="2" max="2" width="60.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.79482182668896806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.63174173618118801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.61332882299024738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="22">
+        <v>745.45259987183249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22">
+        <v>19065892.125522863</v>
+      </c>
+      <c r="D12" s="22">
+        <v>19065892.125522863</v>
+      </c>
+      <c r="E12" s="22">
+        <v>34.309711322161306</v>
+      </c>
+      <c r="F12" s="22">
+        <v>9.9167054560855374E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="22">
+        <v>20</v>
+      </c>
+      <c r="C13" s="22">
+        <v>11113991.57311349</v>
+      </c>
+      <c r="D13" s="22">
+        <v>555699.57865567447</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="23">
+        <v>21</v>
+      </c>
+      <c r="C14" s="23">
+        <v>30179883.698636353</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="22">
+        <v>16824.412893655866</v>
+      </c>
+      <c r="C17" s="22">
+        <v>513.34178776417843</v>
+      </c>
+      <c r="D17" s="22">
+        <v>32.774290530551454</v>
+      </c>
+      <c r="E17" s="22">
+        <v>7.3986534592518267E-19</v>
+      </c>
+      <c r="F17" s="22">
+        <v>15753.600688425679</v>
+      </c>
+      <c r="G17" s="22">
+        <v>17895.225098886054</v>
+      </c>
+      <c r="H17" s="22">
+        <v>15753.600688425679</v>
+      </c>
+      <c r="I17" s="22">
+        <v>17895.225098886054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="23">
+        <v>-421.02398701759722</v>
+      </c>
+      <c r="C18" s="23">
+        <v>71.878384509442682</v>
+      </c>
+      <c r="D18" s="23">
+        <v>-5.8574492163535918</v>
+      </c>
+      <c r="E18" s="23">
+        <v>9.9167054560855374E-6</v>
+      </c>
+      <c r="F18" s="23">
+        <v>-570.95966975281567</v>
+      </c>
+      <c r="G18" s="23">
+        <v>-271.08830428237883</v>
+      </c>
+      <c r="H18" s="23">
+        <v>-570.95966975281567</v>
+      </c>
+      <c r="I18" s="23">
+        <v>-271.08830428237883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>1</v>
+      </c>
+      <c r="B25" s="22">
+        <v>12782.582618286933</v>
+      </c>
+      <c r="C25" s="22">
+        <v>-437.58261828693321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>2</v>
+      </c>
+      <c r="B26" s="22">
+        <v>12824.685016988693</v>
+      </c>
+      <c r="C26" s="22">
+        <v>-732.78501698869331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>3</v>
+      </c>
+      <c r="B27" s="22">
+        <v>12824.685016988693</v>
+      </c>
+      <c r="C27" s="22">
+        <v>-484.98501698869222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>4</v>
+      </c>
+      <c r="B28" s="22">
+        <v>12782.582618286933</v>
+      </c>
+      <c r="C28" s="22">
+        <v>-331.98261828693285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>5</v>
+      </c>
+      <c r="B29" s="22">
+        <v>12782.582618286933</v>
+      </c>
+      <c r="C29" s="22">
+        <v>49.517381713067152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>6</v>
+      </c>
+      <c r="B30" s="22">
+        <v>12866.787415690453</v>
+      </c>
+      <c r="C30" s="22">
+        <v>25.312584309547674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>7</v>
+      </c>
+      <c r="B31" s="22">
+        <v>13035.197010497492</v>
+      </c>
+      <c r="C31" s="22">
+        <v>189.30298950250835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>8</v>
+      </c>
+      <c r="B32" s="22">
+        <v>13372.01620011157</v>
+      </c>
+      <c r="C32" s="22">
+        <v>77.883799888430076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>9</v>
+      </c>
+      <c r="B33" s="22">
+        <v>13793.040187129167</v>
+      </c>
+      <c r="C33" s="22">
+        <v>-316.24018712916768</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>10</v>
+      </c>
+      <c r="B34" s="22">
+        <v>13793.040187129167</v>
+      </c>
+      <c r="C34" s="22">
+        <v>-204.14018712916732</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>11</v>
+      </c>
+      <c r="B35" s="22">
+        <v>13961.449781936206</v>
+      </c>
+      <c r="C35" s="22">
+        <v>-361.04978193620627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>12</v>
+      </c>
+      <c r="B36" s="22">
+        <v>14256.166572848524</v>
+      </c>
+      <c r="C36" s="22">
+        <v>-487.66657284852408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>13</v>
+      </c>
+      <c r="B37" s="22">
+        <v>15056.112148181957</v>
+      </c>
+      <c r="C37" s="22">
+        <v>-259.51214818195695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>14</v>
+      </c>
+      <c r="B38" s="22">
+        <v>15266.624141690756</v>
+      </c>
+      <c r="C38" s="22">
+        <v>-842.42414169075528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>15</v>
+      </c>
+      <c r="B39" s="22">
+        <v>15266.624141690756</v>
+      </c>
+      <c r="C39" s="22">
+        <v>-659.32414169075673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>16</v>
+      </c>
+      <c r="B40" s="22">
+        <v>15308.726540392516</v>
+      </c>
+      <c r="C40" s="22">
+        <v>-620.72654039251574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>17</v>
+      </c>
+      <c r="B41" s="22">
+        <v>15308.726540392516</v>
+      </c>
+      <c r="C41" s="22">
+        <v>-251.42654039251647</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>18</v>
+      </c>
+      <c r="B42" s="22">
+        <v>15014.009749480199</v>
+      </c>
+      <c r="C42" s="22">
+        <v>146.99025051980061</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>19</v>
+      </c>
+      <c r="B43" s="22">
+        <v>14466.678566357321</v>
+      </c>
+      <c r="C43" s="22">
+        <v>1067.9214336426794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>20</v>
+      </c>
+      <c r="B44" s="22">
+        <v>14340.371370252044</v>
+      </c>
+      <c r="C44" s="22">
+        <v>1204.1286297479564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>21</v>
+      </c>
+      <c r="B45" s="22">
+        <v>14045.654579339725</v>
+      </c>
+      <c r="C45" s="22">
+        <v>1598.7454206602742</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>22</v>
+      </c>
+      <c r="B46" s="23">
+        <v>14087.756978041485</v>
+      </c>
+      <c r="C46" s="23">
+        <v>1630.0430219585141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ALS34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.91015625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5234375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.34765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.4453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.20703125" style="2" customWidth="1"/>
-    <col min="7" max="1007" width="8.703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" style="2" customWidth="1"/>
+    <col min="7" max="1007" width="8.69921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -749,7 +1365,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="14"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -785,7 +1401,7 @@
       <c r="U5" s="16"/>
       <c r="V5" s="17"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -821,7 +1437,7 @@
       <c r="U6" s="16"/>
       <c r="V6" s="17"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -857,7 +1473,7 @@
       <c r="U7" s="16"/>
       <c r="V7" s="17"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -893,7 +1509,7 @@
       <c r="U8" s="16"/>
       <c r="V8" s="17"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -929,7 +1545,7 @@
       <c r="U9" s="16"/>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -965,7 +1581,7 @@
       <c r="U10" s="19"/>
       <c r="V10" s="20"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -985,7 +1601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -1005,7 +1621,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -1025,7 +1641,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -1045,7 +1661,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -1065,7 +1681,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -1085,7 +1701,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -1105,7 +1721,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -1125,7 +1741,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -1145,7 +1761,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -1165,7 +1781,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -1185,7 +1801,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -1205,7 +1821,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -1225,7 +1841,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -1245,7 +1861,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -1265,7 +1881,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -1285,7 +1901,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1295,7 +1911,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1305,7 +1921,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1315,7 +1931,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1325,7 +1941,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1335,7 +1951,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1345,7 +1961,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>

--- a/III Курс/(python) Эконометрика/03_linear_regression/data/task.xlsx
+++ b/III Курс/(python) Эконометрика/03_linear_regression/data/task.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\Coding\GitHub Projects\My-University\III Курс\(python) Эконометрика\03_linear_regression\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A549E48-F18A-4B42-ACA9-F49BD01B2A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECECE5F-8CA8-4C2D-9E45-D40E69A92C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -803,10 +803,690 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:ALS34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" style="2" customWidth="1"/>
+    <col min="7" max="1007" width="8.69921875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>12345</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2769</v>
+      </c>
+      <c r="D5" s="5">
+        <v>29.67</v>
+      </c>
+      <c r="E5" s="5">
+        <v>94.2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>12091.9</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3065</v>
+      </c>
+      <c r="D6" s="9">
+        <v>28.94</v>
+      </c>
+      <c r="E6" s="9">
+        <v>101.1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="17"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>12339.7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3899</v>
+      </c>
+      <c r="D7" s="9">
+        <v>28.43</v>
+      </c>
+      <c r="E7" s="9">
+        <v>111.6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="17"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12450.6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3790</v>
+      </c>
+      <c r="D8" s="9">
+        <v>27.5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>119.7</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="17"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>12832.1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3963</v>
+      </c>
+      <c r="D9" s="9">
+        <v>28.07</v>
+      </c>
+      <c r="E9" s="9">
+        <v>112</v>
+      </c>
+      <c r="F9" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="17"/>
+    </row>
+    <row r="10" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>12892.1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4224</v>
+      </c>
+      <c r="D10" s="9">
+        <v>28.08</v>
+      </c>
+      <c r="E10" s="9">
+        <v>112</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="20"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>13224.5</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4645</v>
+      </c>
+      <c r="D11" s="9">
+        <v>27.68</v>
+      </c>
+      <c r="E11" s="9">
+        <v>115.3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>13449.9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4914</v>
+      </c>
+      <c r="D12" s="9">
+        <v>28.86</v>
+      </c>
+      <c r="E12" s="9">
+        <v>109.6</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>13476.8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4830</v>
+      </c>
+      <c r="D13" s="9">
+        <v>31.88</v>
+      </c>
+      <c r="E13" s="9">
+        <v>112.6</v>
+      </c>
+      <c r="F13" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13588.9</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4815</v>
+      </c>
+      <c r="D14" s="9">
+        <v>29.9</v>
+      </c>
+      <c r="E14" s="9">
+        <v>108.7</v>
+      </c>
+      <c r="F14" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>13600.4</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4401</v>
+      </c>
+      <c r="D15" s="9">
+        <v>31.32</v>
+      </c>
+      <c r="E15" s="9">
+        <v>110.9</v>
+      </c>
+      <c r="F15" s="9">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>13768.5</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5189</v>
+      </c>
+      <c r="D16" s="9">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E16" s="9">
+        <v>108</v>
+      </c>
+      <c r="F16" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>14796.6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3434</v>
+      </c>
+      <c r="D17" s="9">
+        <v>30.36</v>
+      </c>
+      <c r="E17" s="9">
+        <v>109.8</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6">
+        <v>14424.2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5195</v>
+      </c>
+      <c r="D18" s="9">
+        <v>28.95</v>
+      </c>
+      <c r="E18" s="9">
+        <v>119.2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6">
+        <v>14607.3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5401</v>
+      </c>
+      <c r="D19" s="9">
+        <v>29.33</v>
+      </c>
+      <c r="E19" s="9">
+        <v>123.3</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <v>14688</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4239</v>
+      </c>
+      <c r="D20" s="9">
+        <v>29.36</v>
+      </c>
+      <c r="E20" s="9">
+        <v>117.8</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
+        <v>15057.3</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4558</v>
+      </c>
+      <c r="D21" s="9">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="E21" s="9">
+        <v>109.2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6">
+        <v>15161</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4675</v>
+      </c>
+      <c r="D22" s="9">
+        <v>32.82</v>
+      </c>
+      <c r="E22" s="9">
+        <v>93.5</v>
+      </c>
+      <c r="F22" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6">
+        <v>15534.6</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6558</v>
+      </c>
+      <c r="D23" s="9">
+        <v>32.19</v>
+      </c>
+      <c r="E23" s="9">
+        <v>102.7</v>
+      </c>
+      <c r="F23" s="9">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
+        <v>15544.5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>6253</v>
+      </c>
+      <c r="D24" s="9">
+        <v>32.92</v>
+      </c>
+      <c r="E24" s="9">
+        <v>113.5</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
+        <v>15644.4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>5410</v>
+      </c>
+      <c r="D25" s="9">
+        <v>30.92</v>
+      </c>
+      <c r="E25" s="9">
+        <v>112</v>
+      </c>
+      <c r="F25" s="9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15717.8</v>
+      </c>
+      <c r="C26" s="8">
+        <v>5023</v>
+      </c>
+      <c r="D26" s="9">
+        <v>31.53</v>
+      </c>
+      <c r="E26" s="9">
+        <v>110.8</v>
+      </c>
+      <c r="F26" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D5E089-5F2E-4BBE-9FFE-AED267DC5A9D}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1296,684 +1976,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALS34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.8984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" style="2" customWidth="1"/>
-    <col min="7" max="1007" width="8.69921875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="14"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>12345</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2769</v>
-      </c>
-      <c r="D5" s="5">
-        <v>29.67</v>
-      </c>
-      <c r="E5" s="5">
-        <v>94.2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>9.6</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6">
-        <v>12091.9</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3065</v>
-      </c>
-      <c r="D6" s="9">
-        <v>28.94</v>
-      </c>
-      <c r="E6" s="9">
-        <v>101.1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="17"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6">
-        <v>12339.7</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3899</v>
-      </c>
-      <c r="D7" s="9">
-        <v>28.43</v>
-      </c>
-      <c r="E7" s="9">
-        <v>111.6</v>
-      </c>
-      <c r="F7" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="17"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>12450.6</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3790</v>
-      </c>
-      <c r="D8" s="9">
-        <v>27.5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>119.7</v>
-      </c>
-      <c r="F8" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="17"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6">
-        <v>12832.1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3963</v>
-      </c>
-      <c r="D9" s="9">
-        <v>28.07</v>
-      </c>
-      <c r="E9" s="9">
-        <v>112</v>
-      </c>
-      <c r="F9" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="17"/>
-    </row>
-    <row r="10" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6">
-        <v>12892.1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>4224</v>
-      </c>
-      <c r="D10" s="9">
-        <v>28.08</v>
-      </c>
-      <c r="E10" s="9">
-        <v>112</v>
-      </c>
-      <c r="F10" s="9">
-        <v>9.4</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="20"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6">
-        <v>13224.5</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4645</v>
-      </c>
-      <c r="D11" s="9">
-        <v>27.68</v>
-      </c>
-      <c r="E11" s="9">
-        <v>115.3</v>
-      </c>
-      <c r="F11" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6">
-        <v>13449.9</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4914</v>
-      </c>
-      <c r="D12" s="9">
-        <v>28.86</v>
-      </c>
-      <c r="E12" s="9">
-        <v>109.6</v>
-      </c>
-      <c r="F12" s="9">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6">
-        <v>13476.8</v>
-      </c>
-      <c r="C13" s="8">
-        <v>4830</v>
-      </c>
-      <c r="D13" s="9">
-        <v>31.88</v>
-      </c>
-      <c r="E13" s="9">
-        <v>112.6</v>
-      </c>
-      <c r="F13" s="9">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6">
-        <v>13588.9</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4815</v>
-      </c>
-      <c r="D14" s="9">
-        <v>29.9</v>
-      </c>
-      <c r="E14" s="9">
-        <v>108.7</v>
-      </c>
-      <c r="F14" s="9">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6">
-        <v>13600.4</v>
-      </c>
-      <c r="C15" s="8">
-        <v>4401</v>
-      </c>
-      <c r="D15" s="9">
-        <v>31.32</v>
-      </c>
-      <c r="E15" s="9">
-        <v>110.9</v>
-      </c>
-      <c r="F15" s="9">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6">
-        <v>13768.5</v>
-      </c>
-      <c r="C16" s="8">
-        <v>5189</v>
-      </c>
-      <c r="D16" s="9">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="E16" s="9">
-        <v>108</v>
-      </c>
-      <c r="F16" s="9">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6">
-        <v>14796.6</v>
-      </c>
-      <c r="C17" s="8">
-        <v>3434</v>
-      </c>
-      <c r="D17" s="9">
-        <v>30.36</v>
-      </c>
-      <c r="E17" s="9">
-        <v>109.8</v>
-      </c>
-      <c r="F17" s="9">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6">
-        <v>14424.2</v>
-      </c>
-      <c r="C18" s="8">
-        <v>5195</v>
-      </c>
-      <c r="D18" s="9">
-        <v>28.95</v>
-      </c>
-      <c r="E18" s="9">
-        <v>119.2</v>
-      </c>
-      <c r="F18" s="9">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6">
-        <v>14607.3</v>
-      </c>
-      <c r="C19" s="8">
-        <v>5401</v>
-      </c>
-      <c r="D19" s="9">
-        <v>29.33</v>
-      </c>
-      <c r="E19" s="9">
-        <v>123.3</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6">
-        <v>14688</v>
-      </c>
-      <c r="C20" s="8">
-        <v>4239</v>
-      </c>
-      <c r="D20" s="9">
-        <v>29.36</v>
-      </c>
-      <c r="E20" s="9">
-        <v>117.8</v>
-      </c>
-      <c r="F20" s="9">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6">
-        <v>15057.3</v>
-      </c>
-      <c r="C21" s="8">
-        <v>4558</v>
-      </c>
-      <c r="D21" s="9">
-        <v>32.450000000000003</v>
-      </c>
-      <c r="E21" s="9">
-        <v>109.2</v>
-      </c>
-      <c r="F21" s="9">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6">
-        <v>15161</v>
-      </c>
-      <c r="C22" s="8">
-        <v>4675</v>
-      </c>
-      <c r="D22" s="9">
-        <v>32.82</v>
-      </c>
-      <c r="E22" s="9">
-        <v>93.5</v>
-      </c>
-      <c r="F22" s="9">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>19</v>
-      </c>
-      <c r="B23" s="6">
-        <v>15534.6</v>
-      </c>
-      <c r="C23" s="8">
-        <v>6558</v>
-      </c>
-      <c r="D23" s="9">
-        <v>32.19</v>
-      </c>
-      <c r="E23" s="9">
-        <v>102.7</v>
-      </c>
-      <c r="F23" s="9">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6">
-        <v>15544.5</v>
-      </c>
-      <c r="C24" s="8">
-        <v>6253</v>
-      </c>
-      <c r="D24" s="9">
-        <v>32.92</v>
-      </c>
-      <c r="E24" s="9">
-        <v>113.5</v>
-      </c>
-      <c r="F24" s="9">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6">
-        <v>15644.4</v>
-      </c>
-      <c r="C25" s="8">
-        <v>5410</v>
-      </c>
-      <c r="D25" s="9">
-        <v>30.92</v>
-      </c>
-      <c r="E25" s="9">
-        <v>112</v>
-      </c>
-      <c r="F25" s="9">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6">
-        <v>15717.8</v>
-      </c>
-      <c r="C26" s="8">
-        <v>5023</v>
-      </c>
-      <c r="D26" s="9">
-        <v>31.53</v>
-      </c>
-      <c r="E26" s="9">
-        <v>110.8</v>
-      </c>
-      <c r="F26" s="9">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>